--- a/HTML/Jobs Excel.xlsx
+++ b/HTML/Jobs Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA20B0-5B09-42B7-8C4C-7480A8A939CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DE1C9-F471-440A-87C2-B68E8292E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="214">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Wuzzuf</t>
   </si>
   <si>
-    <t>منح</t>
-  </si>
-  <si>
     <t>Jobs IN Delta</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>El Araby Group</t>
   </si>
   <si>
-    <t>El Araby Group2</t>
-  </si>
-  <si>
     <t>OLX</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>وظيفتك هنا</t>
   </si>
   <si>
-    <t>شركات</t>
-  </si>
-  <si>
     <t xml:space="preserve">Help ! </t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>منح و تدريب</t>
   </si>
   <si>
-    <t>Tech CO</t>
-  </si>
-  <si>
     <t>OutSide Egypt</t>
   </si>
   <si>
@@ -437,9 +425,6 @@
   </si>
   <si>
     <t>CSE know</t>
-  </si>
-  <si>
-    <t>Intern-s</t>
   </si>
   <si>
     <t>Intern-s/Training</t>
@@ -509,9 +494,6 @@
     <t>Career Jet</t>
   </si>
   <si>
-    <t>Internships &amp; Full-Time</t>
-  </si>
-  <si>
     <t>Egyptian Bankers</t>
   </si>
   <si>
@@ -669,9 +651,6 @@
     <t>FCIS Graduate</t>
   </si>
   <si>
-    <t>Bayt.com</t>
-  </si>
-  <si>
     <t>فرصنا</t>
   </si>
   <si>
@@ -696,6 +675,42 @@
   </si>
   <si>
     <t>محمد سلامة</t>
+  </si>
+  <si>
+    <t>GBS</t>
+  </si>
+  <si>
+    <t>Internships &amp; Full-Time [314004286793745]</t>
+  </si>
+  <si>
+    <t>Orascom</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>Future Group</t>
+  </si>
+  <si>
+    <t>i Career Egy</t>
+  </si>
+  <si>
+    <t>ماجد الفطيم</t>
+  </si>
+  <si>
+    <t>http://proartconsulting.net/careers/</t>
+  </si>
+  <si>
+    <t>شركات (عامة)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركات (تقنية) </t>
+  </si>
+  <si>
+    <t>Bayt</t>
+  </si>
+  <si>
+    <t>موقع منحة</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1256,6 +1271,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1556,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C18477-0470-4498-9086-8645187CF6A7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,156 +1591,150 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="H2" s="48"/>
       <c r="I2" s="54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="50" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>128</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>188</v>
-      </c>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,21 +1750,27 @@
     </row>
     <row r="8" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+        <v>201</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="52" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1781,7 @@
     <hyperlink ref="E5" r:id="rId3" display="https://www.men7h.com/" xr:uid="{A013764E-41A5-418C-9E96-DF11259C13D2}"/>
     <hyperlink ref="A4" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{2290708E-AC5C-4D0F-BB0B-8B2F2980D833}"/>
     <hyperlink ref="F1" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{4BC3BD77-0760-4157-8564-0817FACB6558}"/>
-    <hyperlink ref="G5" r:id="rId6" display="https://jobs.caoa.gov.eg/" xr:uid="{297832C6-AD2D-4B77-82CF-3FA9869D6B6B}"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://jobs.caoa.gov.eg/" xr:uid="{297832C6-AD2D-4B77-82CF-3FA9869D6B6B}"/>
     <hyperlink ref="A2" r:id="rId7" display="https://www.egycareers.com/" xr:uid="{42A48C70-B775-461A-BB1B-47698E610C1B}"/>
     <hyperlink ref="B2" r:id="rId8" display="https://eg.expertini.com/jobs" xr:uid="{3F1C1381-4D28-4499-B33A-F2883D6585E2}"/>
     <hyperlink ref="D2" r:id="rId9" display="https://egypt.tanqeeb.com/ar" xr:uid="{D9B5009A-920B-4F5A-94A1-8C565E20AB06}"/>
@@ -1775,7 +1793,7 @@
     <hyperlink ref="A3" r:id="rId15" display="https://www.goodfirms.co/" xr:uid="{5A89B854-A9D6-4CC9-82C6-A182363FDE11}"/>
     <hyperlink ref="E3" r:id="rId16" display="https://www.waziftakherenow.com/" xr:uid="{DEE36C15-C05B-436C-87AC-361CC91FF2DA}"/>
     <hyperlink ref="C3" r:id="rId17" display="https://eg.indeed.com/?from=gnav-jobsearch--jasx" xr:uid="{24B79881-C9E8-41BB-AD0B-1AD97725DDB1}"/>
-    <hyperlink ref="G3" r:id="rId18" display="https://www.al7arefa.com/ar/" xr:uid="{946E33E8-BA5A-4135-9DE7-5E75040B607D}"/>
+    <hyperlink ref="G2" r:id="rId18" display="https://www.al7arefa.com/ar/" xr:uid="{946E33E8-BA5A-4135-9DE7-5E75040B607D}"/>
     <hyperlink ref="D3" r:id="rId19" display="https://www.glassdoor.com/index.htm" xr:uid="{530FC179-55DD-4591-A292-227D96ACA353}"/>
     <hyperlink ref="F5" r:id="rId20" display="https://muwuzzuf.com/en" xr:uid="{DD7C6896-559B-4F97-BB5F-7364F1A470B1}"/>
     <hyperlink ref="C2" r:id="rId21" display="https://i-need.dev/" xr:uid="{E380F47D-6E26-467D-9EDC-EF7F60F5F023}"/>
@@ -1786,27 +1804,28 @@
     <hyperlink ref="I4" r:id="rId26" display="https://www.facebook.com/marketplace/?_rdc=2" xr:uid="{03485D27-08A8-44F0-83D2-CB3792AF7B51}"/>
     <hyperlink ref="I5" r:id="rId27" display="https://www.olx.com.eg/en/myaccount" xr:uid="{77F576E0-36B2-4794-AA7B-BC927C0B889B}"/>
     <hyperlink ref="E4" r:id="rId28" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{919B735E-630A-4CA8-8985-B8FDA6560229}"/>
-    <hyperlink ref="A5" r:id="rId29" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{644E55C7-CF10-4724-9FFD-C0E35A883CEB}"/>
-    <hyperlink ref="B6" r:id="rId30" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
-    <hyperlink ref="G2" r:id="rId31" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
+    <hyperlink ref="B5" r:id="rId29" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
+    <hyperlink ref="F8" r:id="rId30" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
     <hyperlink ref="I8" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
-    <hyperlink ref="D1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
+    <hyperlink ref="C1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
     <hyperlink ref="I2" location="Help!A1" display="Help ! " xr:uid="{B87F116D-5C61-4F41-A72E-D64B9F2CD490}"/>
-    <hyperlink ref="B5" r:id="rId32" display="https://www.facebook.com/groups/314004286793745" xr:uid="{03AD6884-5A14-43DB-9FB1-DD16E18C84CE}"/>
-    <hyperlink ref="C1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
-    <hyperlink ref="B1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
-    <hyperlink ref="B4" r:id="rId33" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
-    <hyperlink ref="G4" r:id="rId34" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
-    <hyperlink ref="A8" r:id="rId35" display="Salsabeel Elsanhory" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
-    <hyperlink ref="I1" r:id="rId36" display="Home" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
-    <hyperlink ref="A6" r:id="rId37" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
-    <hyperlink ref="C5" r:id="rId38" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
+    <hyperlink ref="B1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
+    <hyperlink ref="D1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
+    <hyperlink ref="B4" r:id="rId31" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
+    <hyperlink ref="G3" r:id="rId32" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
+    <hyperlink ref="A8" r:id="rId33" display="Salsabeel Elsanhory" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
+    <hyperlink ref="I1" r:id="rId34" display="Home" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
+    <hyperlink ref="G5" r:id="rId35" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
+    <hyperlink ref="C5" r:id="rId36" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
     <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{0CFDE5A7-EEE6-4E10-8918-4F50CF689408}"/>
     <hyperlink ref="I6" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
-    <hyperlink ref="C6" r:id="rId39" xr:uid="{EF9F278F-824F-4A3A-A4BE-40D903245473}"/>
-    <hyperlink ref="C8" r:id="rId40" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
+    <hyperlink ref="D8" r:id="rId37" xr:uid="{EF9F278F-824F-4A3A-A4BE-40D903245473}"/>
+    <hyperlink ref="C8" r:id="rId38" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
+    <hyperlink ref="E8" r:id="rId39" xr:uid="{F3DAB9F0-C87E-48B5-9E76-EE89BFE2913A}"/>
+    <hyperlink ref="A5" r:id="rId40" display="iCareerEgy" xr:uid="{4B6DE209-12A5-423C-9A76-D60DA92AC988}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -1818,58 +1837,66 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="79.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="16"/>
@@ -1878,9 +1905,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1889,18 +1916,18 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1918,15 +1945,16 @@
     <hyperlink ref="A5" r:id="rId7" display="http://techleaders.eg/aal" xr:uid="{7EB7505A-E242-4991-BE0A-C04709E5F430}"/>
     <hyperlink ref="B6" r:id="rId8" display="https://assess.sovaonline.com/hub/?ar=eNoBsABP_84CZZsEw2cT_eL0lv9k67svWuYqmMx7QEXe4QtavJXfTRtkVX3sz1uXETWS-hYGbqvqhEmJxIP-5-RQ1_1O5HP7hLlCvmupEhLUZqR1lOkWAUHtu2pEZojcq4uTL71lnMKG6MshdwSs7nJ2DpnelCBRKBuOrGej7dKpCseMXOwZ-vQXfCwhnMOVwiIHxweiWV_sJA7XovenneiJnZceBTUUFoGrD6Az47UIIP2FU1KMUJZaTQ==" xr:uid="{53A20B82-8AA7-481B-A85E-3B1071913D55}"/>
     <hyperlink ref="D1" r:id="rId9" display="https://www.egyincs.me/" xr:uid="{7822A4FF-0C13-46A0-8F6C-D467ABEE5AC1}"/>
-    <hyperlink ref="B1" r:id="rId10" display="https://www.facebook.com/groups/cseknowledgeexchange" xr:uid="{D23FD2F6-BE1F-4855-B830-2790555CDD21}"/>
-    <hyperlink ref="A1" r:id="rId11" display="https://www.facebook.com/groups/314004286793745" xr:uid="{8F7A473A-EF3C-483C-9B01-9593641A5A6C}"/>
-    <hyperlink ref="C1" r:id="rId12" display="https://www.facebook.com/groups/463038787444078" xr:uid="{2BDF2261-ECA7-455F-A006-CFCB7503AC53}"/>
-    <hyperlink ref="E1" r:id="rId13" display="https://www.facebook.com/internmenow2020" xr:uid="{FFE61378-450C-449F-8F5D-9EF7171085F5}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{3A316707-D580-4272-B540-DB400215CAC8}"/>
-    <hyperlink ref="C3" r:id="rId15" xr:uid="{FEAE126F-8F98-4C5E-9DDC-7E52F2FEED1B}"/>
+    <hyperlink ref="A1" r:id="rId10" display="https://www.facebook.com/groups/cseknowledgeexchange" xr:uid="{D23FD2F6-BE1F-4855-B830-2790555CDD21}"/>
+    <hyperlink ref="C1" r:id="rId11" display="https://www.facebook.com/groups/463038787444078" xr:uid="{2BDF2261-ECA7-455F-A006-CFCB7503AC53}"/>
+    <hyperlink ref="E1" r:id="rId12" display="https://www.facebook.com/internmenow2020" xr:uid="{FFE61378-450C-449F-8F5D-9EF7171085F5}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{3A316707-D580-4272-B540-DB400215CAC8}"/>
+    <hyperlink ref="C3" r:id="rId14" xr:uid="{FEAE126F-8F98-4C5E-9DDC-7E52F2FEED1B}"/>
+    <hyperlink ref="B1" r:id="rId15" display="https://www.facebook.com/groups/314004286793745" xr:uid="{03AD6884-5A14-43DB-9FB1-DD16E18C84CE}"/>
+    <hyperlink ref="B2" r:id="rId16" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{644E55C7-CF10-4724-9FFD-C0E35A883CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1945,42 +1973,46 @@
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="G1" s="9"/>
       <c r="H1" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,19 +2027,19 @@
     </row>
     <row r="4" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2025,13 +2057,13 @@
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="1"/>
@@ -2051,16 +2083,16 @@
     </row>
     <row r="8" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2079,10 +2111,10 @@
     </row>
     <row r="10" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2102,20 +2134,22 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.egyptair.com/ar/Pages/HomePage.aspx" xr:uid="{16C73FCB-B1EB-4562-B112-5D8ED2632E04}"/>
     <hyperlink ref="B2" r:id="rId8" display="https://www.vezeeta.com/ar" xr:uid="{BEFF6FAA-30CE-4E21-AA01-52A5AE1B457A}"/>
     <hyperlink ref="B1" r:id="rId9" display="https://careers.elarabygroup.com/Home" xr:uid="{BB68BAB8-B93D-4C86-AC09-51F37A3F205F}"/>
-    <hyperlink ref="C1" r:id="rId10" display="https://www.elarabygroup.com/ar" xr:uid="{C2472752-AEFE-4D6D-9EE3-1F6A3149DA56}"/>
-    <hyperlink ref="D1" r:id="rId11" display="https://www.linkedin.com/jobs/search/?currentJobId=3446664089&amp;f_C=1070572&amp;geoId=92000000" xr:uid="{1B6E7F6F-8DB8-4EA1-B6FA-C8AA4EBBB196}"/>
-    <hyperlink ref="D2" r:id="rId12" display="https://www.facebook.com/SimplexCnc" xr:uid="{E9BF73F6-24D0-491F-B724-DA65C9224419}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.facebook.com/SimplexCnc" xr:uid="{E9BF73F6-24D0-491F-B724-DA65C9224419}"/>
     <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{6D2A5BF3-B12A-47E0-AFD7-02EE2EADF77E}"/>
-    <hyperlink ref="B10" r:id="rId13" xr:uid="{DD858A4B-084D-45D5-9CB8-23E19C0D92AD}"/>
-    <hyperlink ref="H2" r:id="rId14" display="https://www.egycompanies.com/" xr:uid="{DE18A062-25FD-42B1-9B77-F659C107AE12}"/>
-    <hyperlink ref="D8" r:id="rId15" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
-    <hyperlink ref="C8" r:id="rId16" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
-    <hyperlink ref="B8" r:id="rId17" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
-    <hyperlink ref="B6" r:id="rId18" xr:uid="{FA7E4CF5-FD84-48A0-B749-115802BCFAFE}"/>
-    <hyperlink ref="C6" r:id="rId19" xr:uid="{53A2482A-1152-4323-A938-B1101D17F8A7}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{DD858A4B-084D-45D5-9CB8-23E19C0D92AD}"/>
+    <hyperlink ref="H2" r:id="rId12" display="https://www.egycompanies.com/" xr:uid="{DE18A062-25FD-42B1-9B77-F659C107AE12}"/>
+    <hyperlink ref="D8" r:id="rId13" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
+    <hyperlink ref="B8" r:id="rId15" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{FA7E4CF5-FD84-48A0-B749-115802BCFAFE}"/>
+    <hyperlink ref="C6" r:id="rId17" xr:uid="{53A2482A-1152-4323-A938-B1101D17F8A7}"/>
+    <hyperlink ref="D1" r:id="rId18" xr:uid="{55EC9518-08A6-4D76-9A24-47ACB2E44E23}"/>
+    <hyperlink ref="C1" r:id="rId19" xr:uid="{F1FED1CD-9713-450F-A1B6-B1EF943C93A5}"/>
+    <hyperlink ref="E1" r:id="rId20" display="future-group" xr:uid="{EA48E7F7-1128-4591-8290-4CD5454B57E7}"/>
+    <hyperlink ref="F1" r:id="rId21" display="ماحد الفطيم" xr:uid="{5504B74D-AC0C-4988-A5E5-E888F6F83F92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -2129,7 +2163,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="20.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="39" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="39" customWidth="1"/>
     <col min="4" max="4" width="16" style="39" bestFit="1" customWidth="1"/>
@@ -2154,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2175,10 +2209,10 @@
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -2187,7 +2221,7 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2197,10 +2231,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -2209,58 +2243,62 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,13 +2335,13 @@
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="34"/>
     </row>
@@ -2317,7 +2355,7 @@
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2327,7 +2365,7 @@
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -2337,7 +2375,7 @@
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -2347,7 +2385,7 @@
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -2412,9 +2450,10 @@
     <hyperlink ref="A17" r:id="rId12" display="https://secc.org.eg/arabic/pages/default.aspx" xr:uid="{E30169F3-72EC-4AED-A4C2-1DBBE040A544}"/>
     <hyperlink ref="A18" r:id="rId13" display="https://tiec.gov.eg/Arabic/Pages/default.aspx" xr:uid="{DA608EA0-B07D-4077-B1B0-C76E8D071E8B}"/>
     <hyperlink ref="A20" r:id="rId14" display="https://www.facebook.com/Instabug" xr:uid="{EDAAE4A7-A94F-402A-8310-FA6374DEB6A3}"/>
+    <hyperlink ref="A10" r:id="rId15" xr:uid="{C53CF312-FB00-406B-B9ED-7DE10C549538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2434,72 +2473,72 @@
   <sheetData>
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>99</v>
+      <c r="E3" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -2509,28 +2548,28 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -2538,10 +2577,10 @@
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2570,7 +2609,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.linkedin.com/company/banque-misr/jobs" xr:uid="{DB557C5C-278D-4D94-9166-9ACC48BB3C5A}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://caegypt.taleo.net/careersection/ex/jobdetail.ftl" xr:uid="{5AD16224-A5AC-490F-9D05-35800930803A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5AD16224-A5AC-490F-9D05-35800930803A}"/>
     <hyperlink ref="E2" r:id="rId3" display="https://www.saib.com.eg/ar/careers" xr:uid="{9023EB66-1132-49AF-A03B-A409769C26C9}"/>
     <hyperlink ref="F2" r:id="rId4" display="https://www.attijariwafabank.com.eg/career" xr:uid="{23B39F56-B321-41CB-A132-FA9BE491AC3C}"/>
     <hyperlink ref="E1" r:id="rId5" display="https://mycareer.hsbc.com/en_GB/external/SearchJobs/?1017=%5B67230%5D&amp;1017_format=812&amp;listFilterMode=1&amp;pipelineRecordsPerPage=10&amp;pipelineOffset=0" xr:uid="{A90D2182-7631-4494-94E4-9429D7949A7B}"/>
@@ -2623,32 +2662,32 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2663,7 +2702,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2677,10 +2716,10 @@
     </row>
     <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2699,16 +2738,16 @@
     </row>
     <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2716,10 +2755,10 @@
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2804,52 +2843,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2873,6 +2914,7 @@
     <hyperlink ref="E2" r:id="rId11" display="https://lacasa-egy.com/" xr:uid="{A325C0D7-D6A7-4A2E-82C0-B124F6AD1B09}"/>
     <hyperlink ref="F2" r:id="rId12" display="https://www.facebook.com/MilanStore4phones" xr:uid="{EBDD3C3A-71BC-42CB-B1AA-9A1656B7B948}"/>
     <hyperlink ref="H2" location="Jobs!A1" display="Back &lt;--" xr:uid="{71A2C224-5DFB-4021-B7AA-E6A255BC1FBD}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://www.elarabygroup.com/ar" xr:uid="{C2472752-AEFE-4D6D-9EE3-1F6A3149DA56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2896,38 +2938,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -2936,16 +2978,16 @@
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -2963,29 +3005,29 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="28"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -2994,13 +3036,13 @@
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -3010,10 +3052,10 @@
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -3149,37 +3191,37 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3189,22 +3231,22 @@
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3221,16 +3263,16 @@
     </row>
     <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3249,13 +3291,13 @@
     </row>
     <row r="7" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -3265,11 +3307,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="G9" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/HTML/Jobs Excel.xlsx
+++ b/HTML/Jobs Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3DE1C9-F471-440A-87C2-B68E8292E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D24EB-3CAC-4E04-8C12-EFFD26D8EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Vezeeta</t>
   </si>
   <si>
-    <t>El Araby Group</t>
-  </si>
-  <si>
     <t>OLX</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>cs.jobs.egypt</t>
-  </si>
-  <si>
-    <t>Dont.Work.Here</t>
   </si>
   <si>
     <t>اسال هنا عن الشركه</t>
@@ -546,9 +540,6 @@
     <t>مجمع شباب البنوك</t>
   </si>
   <si>
-    <t>بلغ عن شركات النصب</t>
-  </si>
-  <si>
     <t>بنوك</t>
   </si>
   <si>
@@ -711,13 +702,37 @@
   </si>
   <si>
     <t>موقع منحة</t>
+  </si>
+  <si>
+    <t>تحقق من الشركة هنا</t>
+  </si>
+  <si>
+    <t>Don't work there 
+[253221952434585]</t>
+  </si>
+  <si>
+    <t>بلغ عن شركات النصب
+[106366560079734]</t>
+  </si>
+  <si>
+    <t>Dont.Work.Here
+[Dont.Work.Here]</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>evapharma</t>
+  </si>
+  <si>
+    <t>Hilton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,13 +854,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -945,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1003,15 +1011,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1110,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,62 +1157,53 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,31 +1233,28 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1276,16 +1263,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1574,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C18477-0470-4498-9086-8645187CF6A7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,187 +1583,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="F5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="46" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="52" t="s">
-        <v>186</v>
+      <c r="C8" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1847,23 +1842,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1885,10 +1880,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1921,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1962,56 +1957,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB50E4A-66A8-4341-BC74-F018CC377242}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.28515625" style="35"/>
+    <col min="1" max="16384" width="25.28515625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
+      <c r="B1" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="G1" s="9"/>
-      <c r="H1" s="30" t="s">
-        <v>120</v>
+      <c r="H1" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2026,8 +2025,8 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>178</v>
+      <c r="A4" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -2056,16 +2055,16 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>177</v>
+      <c r="A6" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="41"/>
+        <v>180</v>
+      </c>
+      <c r="D6" s="38"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2082,17 +2081,17 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>179</v>
+      <c r="A8" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2110,11 +2109,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>180</v>
+      <c r="A10" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2126,30 +2125,32 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://careers.elarabygroup.com/" xr:uid="{53374F5E-BB8D-498F-8AF2-247FC6A6E95E}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://careers.rayacorp.com/en/myworkspace-j" xr:uid="{947F651A-2641-432B-91C8-5E4DCE0BBFF2}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://careers.rayacorp.com/en/myworkspace-j" xr:uid="{947F651A-2641-432B-91C8-5E4DCE0BBFF2}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://my.te.eg/user/login" xr:uid="{5D696CE7-E4EA-4AF1-AD17-9D0AE5D2AC8B}"/>
     <hyperlink ref="D4" r:id="rId4" display="https://web.vodafone.com.eg/ar/home" xr:uid="{3E43A44D-F5A0-4E9D-AD6E-BA468E9A3C1E}"/>
     <hyperlink ref="E4" r:id="rId5" display="https://www.etisalat.eg/StaticFiles/portal/etisalat/index.html" xr:uid="{C718C3D6-E9BE-4BC1-A67C-F65B7C1391AE}"/>
     <hyperlink ref="C4" r:id="rId6" display="https://www.orange.eg/ar/" xr:uid="{9919CD24-4888-4C5D-92CC-A266D2475B15}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.egyptair.com/ar/Pages/HomePage.aspx" xr:uid="{16C73FCB-B1EB-4562-B112-5D8ED2632E04}"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://www.vezeeta.com/ar" xr:uid="{BEFF6FAA-30CE-4E21-AA01-52A5AE1B457A}"/>
-    <hyperlink ref="B1" r:id="rId9" display="https://careers.elarabygroup.com/Home" xr:uid="{BB68BAB8-B93D-4C86-AC09-51F37A3F205F}"/>
-    <hyperlink ref="D2" r:id="rId10" display="https://www.facebook.com/SimplexCnc" xr:uid="{E9BF73F6-24D0-491F-B724-DA65C9224419}"/>
+    <hyperlink ref="F1" r:id="rId7" display="https://www.egyptair.com/ar/Pages/HomePage.aspx" xr:uid="{16C73FCB-B1EB-4562-B112-5D8ED2632E04}"/>
+    <hyperlink ref="D2" r:id="rId8" display="https://www.vezeeta.com/ar" xr:uid="{BEFF6FAA-30CE-4E21-AA01-52A5AE1B457A}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://www.facebook.com/SimplexCnc" xr:uid="{E9BF73F6-24D0-491F-B724-DA65C9224419}"/>
     <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{6D2A5BF3-B12A-47E0-AFD7-02EE2EADF77E}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{DD858A4B-084D-45D5-9CB8-23E19C0D92AD}"/>
-    <hyperlink ref="H2" r:id="rId12" display="https://www.egycompanies.com/" xr:uid="{DE18A062-25FD-42B1-9B77-F659C107AE12}"/>
-    <hyperlink ref="D8" r:id="rId13" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
-    <hyperlink ref="B8" r:id="rId15" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
-    <hyperlink ref="B6" r:id="rId16" xr:uid="{FA7E4CF5-FD84-48A0-B749-115802BCFAFE}"/>
-    <hyperlink ref="C6" r:id="rId17" xr:uid="{53A2482A-1152-4323-A938-B1101D17F8A7}"/>
-    <hyperlink ref="D1" r:id="rId18" xr:uid="{55EC9518-08A6-4D76-9A24-47ACB2E44E23}"/>
-    <hyperlink ref="C1" r:id="rId19" xr:uid="{F1FED1CD-9713-450F-A1B6-B1EF943C93A5}"/>
-    <hyperlink ref="E1" r:id="rId20" display="future-group" xr:uid="{EA48E7F7-1128-4591-8290-4CD5454B57E7}"/>
-    <hyperlink ref="F1" r:id="rId21" display="ماحد الفطيم" xr:uid="{5504B74D-AC0C-4988-A5E5-E888F6F83F92}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{DD858A4B-084D-45D5-9CB8-23E19C0D92AD}"/>
+    <hyperlink ref="H2" r:id="rId11" display="https://www.egycompanies.com/" xr:uid="{DE18A062-25FD-42B1-9B77-F659C107AE12}"/>
+    <hyperlink ref="D8" r:id="rId12" display="https://portal.absegy.org/Clients/Tracking" xr:uid="{73D1968B-49FA-45F1-900D-6306881D1466}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{84AF5EE2-1C69-4183-8647-E39762C8019C}"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://www.smartcomegypt.com/bm/index.php" xr:uid="{18DEB05F-70FA-47B1-B549-463359A890A7}"/>
+    <hyperlink ref="B6" r:id="rId15" xr:uid="{FA7E4CF5-FD84-48A0-B749-115802BCFAFE}"/>
+    <hyperlink ref="C6" r:id="rId16" xr:uid="{53A2482A-1152-4323-A938-B1101D17F8A7}"/>
+    <hyperlink ref="C1" r:id="rId17" xr:uid="{55EC9518-08A6-4D76-9A24-47ACB2E44E23}"/>
+    <hyperlink ref="B1" r:id="rId18" xr:uid="{F1FED1CD-9713-450F-A1B6-B1EF943C93A5}"/>
+    <hyperlink ref="D1" r:id="rId19" display="future-group" xr:uid="{EA48E7F7-1128-4591-8290-4CD5454B57E7}"/>
+    <hyperlink ref="E1" r:id="rId20" display="ماحد الفطيم" xr:uid="{5504B74D-AC0C-4988-A5E5-E888F6F83F92}"/>
+    <hyperlink ref="B2" r:id="rId21" xr:uid="{381605DE-07D2-4FA6-B1D9-C44986F04BB2}"/>
+    <hyperlink ref="E2" r:id="rId22" display="hilton" xr:uid="{EA8AC5B0-8459-4F40-B4D1-9C47C752C1F8}"/>
+    <hyperlink ref="F2" r:id="rId23" display="orascomde" xr:uid="{7F84976A-787E-434E-A1DF-36B969A6ECF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2163,259 +2164,259 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="20.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14" style="39"/>
+    <col min="1" max="1" width="46.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>120</v>
+      <c r="F1" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <v>1153332210</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="34"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="B5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="34"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="A20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2426,13 +2427,13 @@
     <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.sts-egypt.com/" xr:uid="{1F287EC6-9878-4DFE-957A-9E1CB3A623E5}"/>
@@ -2472,129 +2473,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2642,70 +2643,66 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AF9BC-2390-432A-B21F-EAF301459FA9}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="33.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="23" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18" hidden="1"/>
+    <col min="1" max="1" width="28" style="17" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2714,21 +2711,29 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2736,47 +2741,47 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>138</v>
-      </c>
+    <row r="7" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>137</v>
-      </c>
+    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+    <row r="9" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2784,47 +2789,39 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.javatpoint.com/interview-questions-and-answers" xr:uid="{D5C697F3-2DD8-447E-A8DD-73AEF82422D0}"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/sou2el3amal" xr:uid="{308C553F-ADF1-4684-BA5F-0A082547DA55}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Back &lt;--" xr:uid="{476E36DB-B602-4E57-94BE-18E5999E5157}"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{96D17146-F3B6-4138-9F77-7A9798547A51}"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.facebook.com/groups/402958410979164" xr:uid="{FA54E9FE-2A54-44CD-BD62-611128297E25}"/>
-    <hyperlink ref="C1" r:id="rId5" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{330448EF-CEEF-43A1-A916-7AF52BD5D24F}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://www.facebook.com/groups/767725120055206" xr:uid="{CBCF320A-F864-4CD3-95AC-7C6A995556DA}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{4E1BBCA2-7EDC-40C9-BBAD-072C507E7993}"/>
-    <hyperlink ref="D1" r:id="rId8" xr:uid="{1FB7E2CC-8B64-4946-8870-8B3B310B6AFD}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.thebalancecareers.com/sample-email-job-application-letter-2061608" xr:uid="{96D17146-F3B6-4138-9F77-7A9798547A51}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.facebook.com/groups/402958410979164" xr:uid="{FA54E9FE-2A54-44CD-BD62-611128297E25}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://www.facebook.com/groups/Dont.Work.Here" xr:uid="{330448EF-CEEF-43A1-A916-7AF52BD5D24F}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.facebook.com/groups/767725120055206" xr:uid="{CBCF320A-F864-4CD3-95AC-7C6A995556DA}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{4E1BBCA2-7EDC-40C9-BBAD-072C507E7993}"/>
+    <hyperlink ref="D5" r:id="rId8" display="بلغ عن شركات النصب" xr:uid="{1FB7E2CC-8B64-4946-8870-8B3B310B6AFD}"/>
+    <hyperlink ref="E5" r:id="rId9" display="https://www.facebook.com/groups/253221952434585/" xr:uid="{D3F39710-E426-4755-8CEA-1E0D4B4C72EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2843,53 +2840,53 @@
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2937,152 +2934,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -3178,50 +3175,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="40.5" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="30" style="42" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="42" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" style="42" customWidth="1"/>
-    <col min="9" max="10" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="21.5703125" style="42" hidden="1"/>
+    <col min="1" max="1" width="29.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="30" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="39" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" style="39" customWidth="1"/>
+    <col min="9" max="10" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="21.5703125" style="39" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3230,23 +3227,23 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>190</v>
+      <c r="A3" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>200</v>
+        <v>165</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>197</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -3262,17 +3259,17 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>189</v>
+      <c r="A5" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -3290,14 +3287,14 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>123</v>
+      <c r="A7" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -3307,11 +3304,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
